--- a/Wireless_Node/TME_BOM.xlsx
+++ b/Wireless_Node/TME_BOM.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="BOM" localSheetId="0">Sheet1!$B$1:$H$29</definedName>
+    <definedName name="BOM" localSheetId="2">Sheet3!$B$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -38,11 +39,29 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="BOM1" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" firstRow="2" sourceFile="D:\_WORK\GitHub\Eagle projects\Wireless_Node\BOM.csv" tab="0" semicolon="1">
+      <textFields count="12">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="120">
   <si>
     <t>POWER_CONN_4</t>
   </si>
@@ -131,9 +150,6 @@
     <t>08053D106KAT2A</t>
   </si>
   <si>
-    <t>10u/6.3V</t>
-  </si>
-  <si>
     <t>C13</t>
   </si>
   <si>
@@ -320,9 +336,6 @@
     <t>T1</t>
   </si>
   <si>
-    <t>6-Pin DIP Zero-Cross Optoisolators Triac Driver Output (250/400 Volt Peak)</t>
-  </si>
-  <si>
     <t>RED/GREEN</t>
   </si>
   <si>
@@ -390,13 +403,31 @@
   </si>
   <si>
     <t>ZL321-4P (DS1065-01-1X4S8BV)</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>0603ZD106MAT2A</t>
+  </si>
+  <si>
+    <t>10u/10V</t>
+  </si>
+  <si>
+    <t>VO3063-X007T</t>
+  </si>
+  <si>
+    <t>6-Pin DIP Zero-Cross Optoisolators Triac Driver 600V</t>
+  </si>
+  <si>
+    <t>DS1065-01-1X4S8BV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,11 +464,23 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="BOM" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -483,7 +526,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -515,9 +558,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -549,6 +593,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -724,25 +769,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -758,8 +803,11 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -779,7 +827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -802,7 +850,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -822,7 +870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
@@ -841,8 +889,11 @@
       <c r="G5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -865,15 +916,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -882,84 +933,84 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>33</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
         <v>37</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="F9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>42</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>43</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
@@ -968,33 +1019,33 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>50</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>51</v>
       </c>
-      <c r="F12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>2</v>
       </c>
@@ -1008,18 +1059,21 @@
         <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1028,18 +1082,18 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1048,13 +1102,13 @@
         <v>21</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2</v>
       </c>
@@ -1068,53 +1122,59 @@
         <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G16" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>65</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>67</v>
       </c>
-      <c r="F18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>6</v>
       </c>
@@ -1128,18 +1188,21 @@
         <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1148,221 +1211,236 @@
         <v>21</v>
       </c>
       <c r="F20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>77</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
         <v>81</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>82</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>83</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>84</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>85</v>
       </c>
-      <c r="G23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" t="s">
         <v>88</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>89</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
         <v>91</v>
       </c>
-      <c r="G24" t="s">
+      <c r="D25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
         <v>97</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" t="s">
-        <v>94</v>
-      </c>
-      <c r="E25" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" t="s">
-        <v>95</v>
-      </c>
-      <c r="G25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="F26" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s">
         <v>101</v>
       </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
         <v>106</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E27" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+      <c r="F28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>107</v>
-      </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="E29" t="s">
         <v>111</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>112</v>
       </c>
-      <c r="E29" t="s">
-        <v>113</v>
-      </c>
-      <c r="F29" t="s">
-        <v>114</v>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1370,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1378,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1394,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1402,137 +1480,137 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" customHeight="1">
+    <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>87</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
       <c r="B17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1544,13 +1622,497 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="47.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" t="s">
+        <v>105</v>
+      </c>
+      <c r="E21" t="s">
+        <v>106</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D22" t="s">
+        <v>110</v>
+      </c>
+      <c r="E22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>